--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>71.43572309359067</v>
+        <v>168.6065489245678</v>
       </c>
       <c r="R2">
-        <v>642.921507842316</v>
+        <v>1517.45894032111</v>
       </c>
       <c r="S2">
-        <v>0.002929533003583408</v>
+        <v>0.003903871921750962</v>
       </c>
       <c r="T2">
-        <v>0.002929533003583408</v>
+        <v>0.003903871921750962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>125.3689377821531</v>
+        <v>109.9427969703598</v>
       </c>
       <c r="R3">
-        <v>1128.320440039378</v>
+        <v>989.4851727332381</v>
       </c>
       <c r="S3">
-        <v>0.005141299408082349</v>
+        <v>0.002545586757032632</v>
       </c>
       <c r="T3">
-        <v>0.00514129940808235</v>
+        <v>0.002545586757032632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>24.11884865692245</v>
+        <v>24.68991144577311</v>
       </c>
       <c r="R4">
-        <v>217.069637912302</v>
+        <v>222.209203011958</v>
       </c>
       <c r="S4">
-        <v>0.0009890984522732034</v>
+        <v>0.0005716637500646148</v>
       </c>
       <c r="T4">
-        <v>0.0009890984522732034</v>
+        <v>0.0005716637500646147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>297.6256303746982</v>
+        <v>538.840486985434</v>
       </c>
       <c r="R5">
-        <v>2678.630673372284</v>
+        <v>4849.564382868905</v>
       </c>
       <c r="S5">
-        <v>0.0122054354479296</v>
+        <v>0.01247617166036745</v>
       </c>
       <c r="T5">
-        <v>0.0122054354479296</v>
+        <v>0.01247617166036745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>2961.118061291254</v>
+        <v>7969.624918151421</v>
       </c>
       <c r="R6">
-        <v>26650.06255162128</v>
+        <v>71726.6242633628</v>
       </c>
       <c r="S6">
-        <v>0.1214335449043415</v>
+        <v>0.1845266102847369</v>
       </c>
       <c r="T6">
-        <v>0.1214335449043415</v>
+        <v>0.1845266102847369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
         <v>5196.730849987582</v>
       </c>
       <c r="R7">
-        <v>46770.57764988823</v>
+        <v>46770.57764988824</v>
       </c>
       <c r="S7">
-        <v>0.2131145857631082</v>
+        <v>0.1203237464948044</v>
       </c>
       <c r="T7">
-        <v>0.2131145857631082</v>
+        <v>0.1203237464948044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>999.7625177251291</v>
+        <v>1167.032566292649</v>
       </c>
       <c r="R8">
-        <v>8997.862659526161</v>
+        <v>10503.29309663384</v>
       </c>
       <c r="S8">
-        <v>0.04099961706251963</v>
+        <v>0.02702116671255223</v>
       </c>
       <c r="T8">
-        <v>0.04099961706251963</v>
+        <v>0.02702116671255223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>12337.02959023853</v>
+        <v>25469.69023077032</v>
       </c>
       <c r="R9">
-        <v>111033.2663121467</v>
+        <v>229227.2120769329</v>
       </c>
       <c r="S9">
-        <v>0.5059336391603145</v>
+        <v>0.5897185440411499</v>
       </c>
       <c r="T9">
-        <v>0.5059336391603144</v>
+        <v>0.5897185440411499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>149.7181257201587</v>
+        <v>441.776344180965</v>
       </c>
       <c r="R10">
-        <v>1347.463131481428</v>
+        <v>3975.987097628685</v>
       </c>
       <c r="S10">
-        <v>0.006139843925947564</v>
+        <v>0.01022877389248645</v>
       </c>
       <c r="T10">
-        <v>0.006139843925947563</v>
+        <v>0.01022877389248645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>262.7537256629971</v>
+        <v>288.067855159797</v>
       </c>
       <c r="R11">
-        <v>2364.783530966974</v>
+        <v>2592.610696438173</v>
       </c>
       <c r="S11">
-        <v>0.01077536109119771</v>
+        <v>0.006669847752002065</v>
       </c>
       <c r="T11">
-        <v>0.01077536109119771</v>
+        <v>0.006669847752002065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>50.54934224871845</v>
+        <v>64.691548971477</v>
       </c>
       <c r="R12">
-        <v>454.944080238466</v>
+        <v>582.223940743293</v>
       </c>
       <c r="S12">
-        <v>0.002072995974759586</v>
+        <v>0.001497851199820908</v>
       </c>
       <c r="T12">
-        <v>0.002072995974759586</v>
+        <v>0.001497851199820908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>623.7768670389303</v>
+        <v>1411.848958154139</v>
       </c>
       <c r="R13">
-        <v>5613.991803350372</v>
+        <v>12706.64062338725</v>
       </c>
       <c r="S13">
-        <v>0.0255806876409481</v>
+        <v>0.03268958139910176</v>
       </c>
       <c r="T13">
-        <v>0.0255806876409481</v>
+        <v>0.03268958139910176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N14">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q14">
-        <v>176.9800325112486</v>
+        <v>67.68187086295723</v>
       </c>
       <c r="R14">
-        <v>1592.820292601238</v>
+        <v>609.136837766615</v>
       </c>
       <c r="S14">
-        <v>0.007257837168354852</v>
+        <v>0.001567088330546889</v>
       </c>
       <c r="T14">
-        <v>0.007257837168354852</v>
+        <v>0.001567088330546889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P15">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q15">
-        <v>310.5980834759254</v>
+        <v>44.13312670428522</v>
       </c>
       <c r="R15">
-        <v>2795.382751283328</v>
+        <v>397.198140338567</v>
       </c>
       <c r="S15">
-        <v>0.01273742739609947</v>
+        <v>0.001021846869287485</v>
       </c>
       <c r="T15">
-        <v>0.01273742739609948</v>
+        <v>0.001021846869287485</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N16">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q16">
-        <v>59.75378192565677</v>
+        <v>9.910999357671889</v>
       </c>
       <c r="R16">
-        <v>537.7840373309109</v>
+        <v>89.19899421904701</v>
       </c>
       <c r="S16">
-        <v>0.002450464118782652</v>
+        <v>0.0002294766861411596</v>
       </c>
       <c r="T16">
-        <v>0.002450464118782652</v>
+        <v>0.0002294766861411596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N17">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q17">
-        <v>737.3592855060067</v>
+        <v>216.300804971681</v>
       </c>
       <c r="R17">
-        <v>6636.233569554061</v>
+        <v>1946.707244745129</v>
       </c>
       <c r="S17">
-        <v>0.03023862948175766</v>
+        <v>0.005008172248154215</v>
       </c>
       <c r="T17">
-        <v>0.03023862948175766</v>
+        <v>0.005008172248154215</v>
       </c>
     </row>
   </sheetData>
